--- a/barcodegen/barcodes.xlsx
+++ b/barcodegen/barcodes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ПРОГРАММЫ\ГенераторШтрихкодов\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Python\barcodegen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9798A68C-78DE-4FFF-9852-17BB18C27953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972726DB-A908-4DFC-A588-2354A598DBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,12 +414,12 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -458,10 +458,16 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
